--- a/deuChatbot/research_result/results/sem_score/sem_version_1(3000_0).xlsx
+++ b/deuChatbot/research_result/results/sem_score/sem_version_1(3000_0).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6107,61 +6107,3484 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2024년 동계 합격자 발표 및 등록금 납부 일정은 다음과 같습니다:
+1. 최초합격자 발표:
+   - 날짜: 2024년 2월 2일 (금) 14:00
+   - 방법: 홈페이지에서 개별 조회
+2. 충원 합격자 1차 발표:
+   - 날짜: 2024년 2월 14일 (수) 09:00
+   - 방법: 홈페이지에서 개별 조회
+3. 충원 합격자 2차 발표:
+   - 날짜: 2024년 2월 15일 (목) 09:00
+   - 방법: 홈페이지에서 개별 조회
+4. 충원 합격자 3차 이후 발표 (개별 전화 통보):
+   - 날짜: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+   - 방법: 홈페이지에서 개별 조회
+각 발표 후에는 등록금 납부 기간이 따로 지정되므로, 해당 일정을 확인하고 지켜야 합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.7929171049594879</v>
+        <v>0.9791214466094971</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>면접은 개별적으로 이루어지며, 각 지원자에게 할당된 시간 내에 진행됩니다. 일반적으로 1인당 10분 이내로 이루어집니다.
+면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+면접은 블라인드 면접 방식으로 진행되며, 개인 신상 정보(수험번호, 성명, 출신고교, 부모 직업 등) 노출이 금지되고 교복 착용도 금지됩니다.
+具体的来说，面试是单独进行的，每位申请者在指定的时间内完成。通常每个人大约需要10分钟。面试流程如下：
+1. 在等待室入座
+2. 进行身份确认
+3. 移动到考场前
+4. 到达考场
+5. 发表个人动机和学业计划
+6. 回答与学业能力、专业适应性相关的一般问题并进行问答
+7. 其他问题（如提交文件的真实性等）
+8. 离场
+面试采用盲选方式，禁止透露个人信息（如准考证号、姓名、毕业高中、父母职业等），并且不允许穿校服。</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.7841355717182159</v>
+        <v>0.7540298700332642</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 한의예과의 최저학력 기준은 다음과 같습니다:
+- **수능 최저학력 기준 없음**
+이는 표에서 "수능최저기준 없음"으로 표현되어 있습니다. 
+따라서, 한의예과는 수능 최저학력 기준이 없으며, 지원 자격은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로 제시되고 있습니다.
+추가적으로, 표에서 한의예과는 다음과 같이 분류되어 있습니다:
+- **모집군**: 다군
+- **전형명**: 수능(일반학생전형)
+- **고교유형별 지원자격**:
+  - 일반고
+  - 자율고
+  - 특수목적고 (과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고)
+  - 특성화고 (특성(직업), 특성(대안))
+  - 영재학교
+  - 기타 (학력인정고, 방송통신고, 각종학교)
+  - 검정고시
+  - 외국고
+따라서, 다양한 고교 유형의 졸업자나 법령에 의한 동등 학력 소지자가 지원 자격을 갖추게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.6106153130531311</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서는 각 모집단위별로 수능 최저학력 기준을 설정하고 있습니다. 하지만 표에 직접적으로 수능 최저학력 기준이 나와있지는 않습니다.
+표에서 수능 최저학력 기준을 파악하기 위해서는 다음과 같은 정보를 참고해야 합니다:
+1. 각 모집단위의 모집인원과 지원 인원을 통해 대략적인 경쟁률을 추정할 수 있습니다.
+2. 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균 및 표준 편차를 통해 일반적으로 요구되는 수능 점수 범위를 파악할 수 있습니다.
+예를 들어, 인문사회과학대학 국어국문학과의 경우:
+- 모집인원: 17명
+- 지원인원: 204명 (경쟁률 약 12.05대1)
+- 국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균: 389.63점
+- 영어 등급 평균: 3.74등급
+이 정보를 통해 일반적으로 요구되는 수능 최저학력 기준을 추정할 수 있습니다.
+하지만 정확한 수능 최저학력기준은 각 모집단위 별로 다를 수 있으므로, 공식 입시 안내서나 동의대학교 입학처 웹사이트를 통해 확인하는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.6664453744888306</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 충원합격자를 발표합니다. 특히, 2024년 2월 14일(수) ~ 2024년 2월 20일(화) 12:00까지 환불 신청이 가능하며, 이 기간 동안 충원합격자 발표가 이루어집니다.
+또한, 전화 연락 두절로 인해 충원합격 통보를 받지 못한 경우에도 충원합격자가 될 수 있으므로, 이 기간 동안 전화를 받지 않아도 등록금 납부를 하지 않는다면 등록포기자로 간주될 수 있다는 점을 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.8916835784912109</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자의 발표는 다음과 같이 이루어집니다:
+- **1차 발표**: 2024년 2월 14일(수) 09:00
+- **1차 등록**: 2024년 2월 14일(수) 09:00~16:00
+이후 추가로 2차와 3차 발표가 있을 수 있으며, 이에 대한 자세한 일정은 다음과 같습니다:
+- **2차 발표**: 2024년 2월 15일(목) 09:00
+- **2차 등록**: 2024년 2월 15일(목) 09:00~16:00
+또는 전화 통보를 통해 발표되며, 이 경우 다음과 같은 일정이 적용됩니다:
+- **3차 이후 발표 (개별 전화 통보)**: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+따라서 추가합격자 발표는 최초 합격자 발표 이후로 2024년 2월 14일부터 시작되며, 이 후에도 2차와 3차 등으로 계속될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.9572117328643799</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2024년 동일 연도에 졸업하지 못하는 경우 합격이 취소되며, 모집인원 미달 시 결원은 추가모집으로 이월하여 선발할 수 있습니다. 따라서 추가모집 가능성은 있습니다.
+추가모집을 위한 자세한 내용은 입학전형일정이나 동의대학교 입학관리 홈페이지를 참고하시거나, 직접 학교에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.9743808507919312</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 동등학력 소지자 또는 고교 졸업(예정)자를 대상으로 하는 전형입니다. 주요 내용을 요약하면 다음과 같습니다:
+1. 지원 자격:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+   - 만 30세 이상인 자 (1994년 2월 28일 이전 출생)
+2. 제출 서류:
+   - 고교 학교생활기록부 (온라인 제공 동의자는 제출 없음)
+   - 검정고시 합격증서 사본 또는 합격증명서
+   - 검정고시 성적증명서
+   - 외국고교 졸업(예정)자: 공증받은 졸업증명서, 성적증명서 등 (외국어로 작성된 경우 원본과 번역본 함께 제출)
+3. 전형 요소 반영 비율:
+   - 서류 70%
+   - 면접 30%
+4. 추가 제출 사항:
+   - 외국고교 졸업예정자는 졸업 후 졸업증명서를 2024년 2월 16일까지 추가로 제출해야 함
+5. 서류 제출 기간 및 장소:
+   - 2024년 1월 3일 (수) ~ 12일 (금) 17:00까지
+   - (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+6. 합격자 발표 및 등록:
+   - 홈페이지를 통해 확인 가능
+   - 지정된 기간 내에 등록금을 납부해야 함
+이러한 정보는 기본적인 내용이며, 자세한 사항은 공식 홈페이지에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.7911661863327026</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+2. 검정고시 출신자 (검정고시 합격증서, 성적증명서 필요)
+3. 외국고교 졸업(예정)자 (공증받은 외국고교 졸업/예정 증명서와 성적증명서 필요, 아포스티유 확인 또는 영사확인 필요)
+4. 기타 학력인정 평생교육시설에서 제공하는 교육과정을 이수한 자
+이러한 자격 요건을 충족해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.8072510957717896</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 해당 학과의 입학관리팀으로 제출해야 합니다. 
+특히, 레저스포츠학과와 태권도학과의 경우 다음과 같이 제시되어 있습니다:
+- 각 실기종목 실기 시 운동복 및 운동화를 착용해야 합니다.
+  (스파이크, 축구화 등 특수화는 불가하며, 신발바닥에 이물질 가칠 금지)
+- 실기 당일 부상 또는 기타 사유로 기권한 자(응급환자 포함)에게는 해당 종목에 최저점수를 부여합니다.
+- 각 실기종목별 2회 반칙자에게는 최저점수를 부여합니다.
+따라서, 실기고사는 해당 학과의 입학관리팀으로 제출하고, 준비물과 규정을 준수하여 참가해야 합니다. 정확한 위치와 접수 방법은 해당 학과 웹사이트나 입학 안내 사이트에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.6232790350914001</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 준비해야 합니다:
+1. **장비**: 운동복 및 운동화를 착용해야 합니다. 스파이크나 축구화 같은 특수화는 허용되지 않으며, 신발바닥에 이물질이 가착될 수 없도록 주의해야 합니다.
+2. **종목**:
+   - 제자리 멀리뛰기 (240점 / 24%)
+   - 메디신볼 던지기 (243점 / 23%)
+   - Z-런 (230점 / 23%)
+3. **일정**: 실기 당일에 해당 종목을 수행해야 합니다.
+4. **반칙 및 기권**:
+   - 각 종목별로 2회 반칙 시 최저 점수를 받게 됩니다.
+   - 부상이나 기타 사유로 인해 기권한 경우 해당 종목에 최저 점수를 부여받습니다.
+5. **장소**: 실기고사는 대학에서 지정된 장소에서 진행됩니다. 구체적인 장소는 공지나 안내문을 통해 확인할 수 있습니다.
+따라서, 체육학과의 실기고사는 해당 학교에서 실시되는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.5488094687461853</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024년 2월 고교 졸업예정자가 당해 연도에 졸업하지 못하는 경우 합격이 취소됩니다. 또한, 타 대학에 충원합격 통보를 받고 등록할 경우에는 즉시 우리대학에 등록 포기 의사를 전달해야 합니다.
+따라서 수시 충원합격자 발표 시점인 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지는 합격 여부를 확인하고 등록금 납부가 완료되는 것이 중요합니다. 이 기간 내에 전화 연락 두절로 인해 충원합격 통보가 어려운 경우, 충원합격자로 선정되더라도 등록 의사가 없는 것으로 간주될 수 있습니다.
+따라서, 수시 충원합격자 발표 후에는 반드시 합격 여부를 확인하고 지정된 기간 내에 등록금을 납부해야 합니다. 만약 전화 연락이 두절되는 경우, 가능한 한 빨리 우리대학 입학관리팀에 연락하여 상황을 설명하는 것이 좋습니다.
+자세한 내용은 합격자 발표 및 등록금 납부 일정표를 참고하시기 바랍니다: 
+- 충원 합격자 1차 발표: 2024. 02. 14.(수) 09:00
+- 충원 합격자 1차 등록: 2024. 02. 14.(수) 09:00~16:00
+- 충원 합격자 2차 발표: 2024. 02. 15.(목) 09:00
+- 충원 합격자 2차 등록: 2024. 02. 15.(목) 09:00~16:00
+이 기간 내에 반드시 학교와 연락을 취하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.7258937358856201</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 정확한 수시모집 결과에 대한 정보가 제공된 데이터 내에서는 직접 확인할 수 없습니다. 하지만, 2024학년도 모집 요강에서 경찰행정학과의 관련 정보를 찾을 수 있습니다.
+2024학년도 경찰행정학과의 모집 정보는 다음과 같습니다:
+- **모집 인원**: 7명
+- **전형 유형**: 
+  - &lt;가&gt;군: 일반학생전형 (3명)
+  - &lt;나&gt;군: 일반학생전형 (3명), 실기/실적(경기실적우수자전형) (1명)
+2024학년도의 모집 정보를 통해, 경찰행정학과는 여전히 수시모집을 진행하며, 다양한 전형 유형으로 지원자를 선발합니다. 
+만약 2023학년도의 정확한 수시모집 결과가 필요하다면, 동의대학교 입학관리 홈페이지나 관련 공지사항을 확인하시거나, 대학 관계자에게 직접 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.7751526832580566</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 일부 전형은 수능을 응시하지 않더라도 지원이 가능합니다. 특히, 실기/실적 위주 전형과 학생부 종합 전형 등에서는 수능 없이 지원할 수 있는 경우가 있습니다.
+예를 들어:
+- **나군 실기/실적(경기실적우수자전형)**: 이 전형은 수능을 응시하지 않아도 지원 가능합니다.
+- **나군 학생부교과(농어촌학생전형)**, **나군 학생부종합(평생학습자전형)** 등도 수능 없이 지원할 수 있습니다.
+하지만, 대부분의 전형은 수능 점수를 반영하므로, 수능을 응시하는 것이 유리한 경우가 많습니다. 특히, **가군 수능(일반학생전형)**과 같은 전형에서는 수능 성적이 필수적으로 반영됩니다.
+따라서, 정확한 지원 가능 여부는 해당 전형의 세부 조건을 확인해야 합니다. 각 전형의 공식 안내를 통해 자세한 정보를 얻으시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.6386311650276184</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 정시모집에 대한 지원 자격은 다음과 같습니다:
+- 일반고등학교를 졸업(예정)한 자 또는 법령에 의거 동등학력을 소지한 자입니다.
+- 고등학교 졸업 후 10년이 지났다고 하더라도, 해당 조건을 충족하면 지원 가능합니다.
+하지만, 특정 전형에서는 추가적인 요구사항이 있을 수 있으므로, 정확한 자격 여부를 확인하기 위해서는 공식 입학 홈페이지(https://ipsi.deu.ac.kr/main.do)를 참조하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.658608615398407</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일(화)
+2. **원서접수 (인터넷)**:
+   - 기간: 2024년 1월 3일(수) ~ 2024년 1월 6일(토)
+   - 마감시간: 18시까지
+   - 접수 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 기간: 2024년 1월 3일(수) ~ 2024년 1월 12일(금)
+   - 마감시간: 도착분 17시까지
+   - 제출 장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과 태권도학과: 2024년 1월 16일(화)
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인): 2024년 1월 17일(수)
+   - 체육학과: 2024년 1월 17일(수)
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+     * 홈페이지에서 개별 조회 가능
+     * 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     * 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일(수) ~ 2024년 2월 13일(화) (은행 마감시간 내)
+     * 홈페이지에서 개별 조회 가능
+     * 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     * 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 발표 및 등록:
+     1차: 2024년 2월 14일(수) 09:00
+     2차: 2024년 2월 15일(목) 09:00
+       * 홈페이지에서 개별 조회 가능
+       * 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+       * 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표 및 등록: 개별 전화 통보 시 안내
+7. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 및 충원 합격자에게는 별도 개인 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+8. **등록금 납부**:
+   - 지정 기일 내에 등록금을 납부하지 않은 경우 우리대학 입학을 포기하는 것으로 간주합니다.
+이 일정은 일반적으로 동의대학교 정시 모집의 주요 단계를 포함하고 있으며, 각 단계별로 중요한 정보와 마감 시간 등을 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.9785279035568237</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일(화)
+2. **원서접수 (인터넷)**:
+   - 기간: 2024년 1월 3일(수) ~ 2024년 1월 6일(토)
+   - 마감 시간: 18시까지
+   - 접수 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 기간: 2024년 1월 3일(수) ~ 2024년 1월 12일(금)
+   - 마감 시간: 17시까지 도착
+   - 제출 장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과 태권도학과: 2024년 1월 16일(화)
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인): 2024년 1월 17일(수)
+   - 체육학과: 2024년 1월 17일(수)
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+     * 홈페이지에서 개별 조회 가능
+     * 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     * 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일(수) ~ 2024년 2월 13일(화) (은행마감시간 내)
+     * 홈페이지에서 개별 조회 가능
+     * 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     * 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표 및 등록:
+     - 발표: 2024년 2월 14일(수) 09:00
+     - 등록: 2024년 2월 14일(수) 09:00 ~ 16:00
+   - 충원 합격자 2차 발표 및 등록:
+     - 발표: 2024년 2월 15일(목) 09:00
+     - 등록: 2024년 2월 15일(목) 09:00 ~ 16:00
+   - 충원 합격자 3차 이후 발표 및 등록:
+     - 발표: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 등록: 개별 전화 통보 시 안내
+7. **등록금 환불 신청 기간**: 2024년 2월 14일(수) ~ 2024년 2월 20일(화) 12:00
+8. **등록 포기 및 등록금 환불 절차**:
+   - 등록자가 충원기간 중 타 대학에 충원합격 통보를 받고 등록할 경우에는 즉시 우리대학에 등록포기를 알려야 합니다.
+이 일정은 홈페이지를 통해 공지되며, 지원자는 반드시 이 기간 내에 합격 여부와 등록금 납부 등을 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.9678505659103394</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 다음과 같습니다:
+1. 실기/실적 위주 전형 (가군, 나군)
+2. 학생부교과 전형 (나군 - 농어촌학생전형 제외)
+3. 학생부종합 전형 (나군 - 성인학습자(정원내)전형, 재직자전형 제외)
+이 중에서 수능 미응시자를 대상으로 하는 전형은 실기/실적 위주 전형과 학생부교과 전형인데, 이들 전형에서는 수능 점수가 요구되지 않습니다. 
+특히, 실기/실적 위주 전형은 특정 학과에서 실기나 실적을 중점적으로 평가하므로 수능 미응시자도 지원이 가능합니다.
+학생부교과 전형에서도 수능 대신 학생부 교과 성적이 주요 평가 요소로 사용되므로, 수능 미응시자도 지원이 가능합니다. 
+하지만, 학생부종합 전형의 경우 대부분 수능 점수가 포함되어 있으므로 수능 미응시자는 제한적으로 지원할 수 있습니다 (성인학습자(정원내)전형, 재직자전형 등 일부 모집단위를 제외).</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.5589799880981445</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024년도 전자공학과의 경우, 충원 합격은 총 3차로 이루어집니다. 
+- 첫 번째 충원 합격 발표는 2024년 2월 14일(수)에 이루어졌습니다.
+- 두 번째 충원 합격 발표는 같은 날인 2024년 2월 15일(목)에 이루어졌습니다.
+- 세 번째 충원 합격 발표는 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 이루어집니다.
+따라서 전자공학과의 충원 합격은 총 3차로 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.5598917007446289</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 입학처의 연락처는 "(주)유웨이어플라이 : 1588-8988(http://www.uwayapply.com)"로 표시되어 있습니다. 그러나 직접적인 전화번호가 주어지진 않았습니다.
+만약 더 정확한 전화번호를 찾고 있다면, 대학 홈페이지의 '연락처'나 '입학 안내' 섹션을 확인해 보는 것이 좋습니다. 또는 제공된 연락처 "(주)유웨이어플라이 : 1588-8988"로 문의하실 수 있습니다.
+만약 이 정보가 부족하다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 링크를 클릭하여 대학 홈페이지를 방문해 보세요.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.7982611656188965</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다. 따라서 지원자는 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.
+요약하면, 3차 이후 충원합격자 발표 기간 동안 전화를 받지 못한 경우 등록 의사가 없다고 간주되어 등록이 포기된 것으로 처리됩니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.955949604511261</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정 모두 다음과 같은 서류를 제출해야 합니다:
+1. **고교 졸업증명서**:
+   - 6년 과정: 고교 졸업증명서, 지원자 본인, 부모 각각의 주민등록초본(총 3부)
+   - 12년 과정: 고교 졸업증명서, 지원자 본인의 주민등록초본 1부
+2. **학교생활기록부**:
+   - 6년 과정: 중학교 학교생활기록부 1부, 고등학교 학교생활기록부 1부
+   - 12년 과정: 초등학교 학교생활기록부 1부, 중학교 학교생활기록부 1부, 고등학교 학교생활기록부 1부
+3. **가족관계증명서**:
+   - 6년 과정: 지원자 본인, 부모 각각의 가족관계증명서 1부(총 3부)
+   - 12년 과정: 지원자 본인의 주민등록초본 1부
+4. **주민등록초본**:
+   - 6년 과정: 지원자 본인, 부모 각각의 주민등록초본(총 3부)
+   - 12년 과정: 지원자 본인의 주민등록초본 1부
+5. **기타 증빙서류**:
+   - 농어촌 또는 도서·벽지 지역 거주 증명서 (필요시)
+이러한 서류들은 2024년 1월 3일부터 1월 12일까지 제출해야 하며, 제출장소는 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀입니다. 또한, 서류 미제출이나 미확인은 불합격 처리될 수 있으므로 반드시 확인해야 합니다.
+추가적으로, 최종 등록자 중 고교 졸업예정자는 졸업 이후에 발급한 졸업증명서를 2024년 2월 16일까지 추가 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.8762606382369995</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+- 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이외에 추가적인 서류는 없습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.9026435017585754</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到关于低收入机会均等类型的招生计划。因此，根据现有信息无法确定是否在正取生（정시모집）中不招收低收入机会均等类型的学生。
+如果您需要更准确的信息，请访问以下网站进行查询：https://ipsi.deu.ac.kr/main.do
+或者您可以直接联系学校入学管理委员会以获取最准确的答案。</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.5882400274276733</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급점수 산출 시, 등급 평균을 구하는 경우 소수점 셋째자리에서 절사한다는 내용이 포함되어 있습니다.
+따라서 사탐(사회탐구) 2개 과목의 평균산출시에도 소수점 셋째자리에서 절사됩니다. 
+예를 들어, 두 과목의 등급이 각각 2등급과 3등급이라면:
+(2 + 3) / 2 = 2.5
+그러나 이 경우 소수점 셋째자리에서 절사되어 2등급으로 반영됩니다.
+따라서 2.5등급이 나오더라도, 소수점 셋째자리에서 절사하여 2등급으로 반영될 것입니다.
+참고로, 수능 영어 등급점수 산출 시에도 동일하게 소수점 셋째자리에서 절사됩니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.6175024509429932</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 충원 합격자는 다음과 같이 발표됩니다:
+1. 1차 충원 합격자 발표: 2024년 2월 14일(수) 09:00
+2. 2차 충원 합격자 발표: 2024년 2월 15일(목) 09:00
+또한, 최초합격자와 함께 3차 이후 충원 합격자는 개별 전화 통보를 통해 발표됩니다.
+따라서 총 3차까지의 충원 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.9020040035247803</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 정시 모집요강을 바탕으로 답변드리겠습니다.
+e비즈니스학과는 수능 위주의 전형이며, 수능 성적 반영 비율이 100%입니다. 따라서 e비즈니스학과의 경우 수능 성적이 가장 중요한 평가 요소입니다.
+e비즈니스학과의 수능 성적 반영 방법은 다음과 같습니다:
+- 국어(화법과작문 or 언어와매체) : 25%
+- 수학(확률과통계 or 미적분 or 기하) : 25%
+- 영어 : 25%
+- 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목 선택) : 각 25%
+4.6이라는 점수는 수능 등급으로 해석하면 대략 3등급 정도입니다. e비즈니스학과의 모집인원과 지원 인원, 경쟁률 등을 고려할 때, 4.6의 등급만으로 추가 합격하기는 어렵다고 볼 수 있습니다.
+다만, 다음과 같은 요소들이 함께 고려되면 추가 합격 가능성은 높아질 수 있습니다:
+1. 탐구 과목에서 좋은 성적을 받았다면 이 부분이 도움이 될 수 있습니다.
+2. 지원자의 전반적인 성적 경향과 추세를 고려하면, 4학년 때 더 나은 성적이 나왔다면 이점이 있을 수 있습니다.
+3. 다른 학교에서도 e비즈니스학과에 지원했는지 확인해보세요.
+따라서, 단순히 4.6의 등급만으로 추가 합격하기는 어렵지만, 전반적인 성적 경향과 탐구 과목 성적 등을 고려하면 추가 합격 가능성은 있을 수 있습니다. 최종 결정을 내리기 위해서는 동의대학교 입학관리 홈페이지를 통해 최신 정보와 자세한 전형요강을 확인하시고, 필요하다면 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.7998101711273193</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 e비즈니스학과의 모집요강을 살펴보겠습니다.
+1. **모집인원 및 지원자 수**:
+   - e비즈니스학과는 30명을 모집하며, 지원자는 89명이었습니다.
+   - 경쟁률은 약 2.97:1입니다 (89 / 30).
+2. **합격기준**:
+   - e비즈니스학과의 합격자 발표에서는 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균이 450.78이고, 표준 편차는 6.90입니다.
+   - 영어 등급의 평균은 3.20이며, 표준 편차는 1.24입니다.
+3. **성적 분석**:
+   - 정시 등급이 5.3인 경우, 이는 대략 수능 영어 점수로 80점대 중반 정도를 의미합니다 (등급-점수 변환표 참조).
+   - e비즈니스학과의 평균 국어 + 수학 + 탐구(2개) 표준 변환 점수 합은 450.78이며, 이는 상당히 높은 점수입니다.
+   - 정시 등급 5.3이면 영어 부분에서는 좋은 성적을 받았다고 볼 수 있습니다.
+4. **합격 가능성**:
+   - e비즈니스학과의 경쟁률은 약 2.97:1이며, 이는 상대적으로 낮은 편입니다.
+   - 국어 + 수학 + 탐구(2개) 부분에서 평균 점수가 높고, 영어 등급도 괜찮다면 최초 합격 가능성은 있습니다.
+따라서, 정시 등급 5.3인 경우 e비즈니스학과에 최초 합격 가능성이 있지만, 확실한 것은 아닙니다. 실제 합격 여부는 수능 성적뿐만 아니라 다른 전형요소 (면접, 서류 등)와 지원자의 전체 경쟁력을 고려해야 합니다.
+추가적으로, 동의대학교 입학전형은 종종 다양한 요인을综合来看，这位学生是在询问关于东义大学e商业学专业的录取可能性。根据提供的信息：
+1. e商业学专业2024年计划招生30人，实际报名人数为89人。
+2. 该专业的平均成绩（国语+数学+选修两科）标准分总和约为450.78，标准差为6.90。
+3. 英语等级的平均值为3.20，标准差为1.24。
+如果学生的高考英语等级是5.3级，这相当于大约80分左右的成绩。考虑到e商业学专业的录取情况和竞争比例（约2.97:1），这位学生有被录取的可能性，但并不是绝对的。具体能否被录取还需要考虑其他因素如面试、提交材料等。
+因此，可以回答说：如果学生的高考英语等级是5.3级，那么被东义大学e商业学专业录取的可能性还是存在的，但仍需综合评估其他因素。</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.7676557898521423</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **个人成绩**：您需要提供具体的高考分数。
+2. **学校要求的最低分数线**：不同专业和学校的录取线可能会有所不同。
+3. **其他评估标准**：除了高考成绩外，还可能有面试、推荐信等其他评估环节。
+根据提供的信息，我们只能看到一些一般性的指导原则。例如：
+- 多数专业的录取比例为100%（如多军普通生源型），这意味着只要达到最低分数线就有机会被录取。
+- 有些专业可能会有一些额外的要求或限制条件。
+假设您是申请e商务学（eBusiness）专业，根据提供的信息，该专业的招生计划为45人。如果按照100%的比例计算，那么理论上只要达到最低录取线就有可能被录取。
+但是，具体到您的情况：
+- 您需要提供具体的高考分数。
+- 需要查看您所在省份和学校的具体录取分数线。
+- 了解是否有其他评估环节（如面试）的要求。
+建议：
+1. 查看e商务学专业的具体招生简章或咨询学校的招生办公室获取最新的录取分数线。
+2. 如果有面试或其他评估环节，确保准备充分。
+3. 确认是否需要提交额外的申请材料。
+如果您能提供具体的高考分数和其他相关信息，我可以帮助您进行更详细的分析。</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.3805172145366669</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 충분한지 확실하지는 않습니다. 하지만 몇 가지 요소를 고려해보면:
+1. **전형 유형**: 동의대학교 간호학과는 일반적으로 수능 위주의 전형을 채택합니다.
+2. **수능 최저 기준**: 2024년도에 해당 학과의 수능 최저 기준을 확인해야 합니다. 이 정보가 제공되지 않았으므로, 공식 홈페이지나 입학처와 연락하여 확인해보세요.
+3. **경쟁률 및 지원 인원**: 현재 지원자의 수와 경쟁률을 고려해야 합니다. 많은 지원자가 있는 경우 3.44의 성적은 낮게 평가될 수 있습니다.
+4. **추천 및 특기사항**: 추천서나 특기사항 등 추가 자료가 있다면 이도 합격 가능성에 영향을 줄 수 있습니다.
+5. **개인적인 노력과 경험**: 입학사정관 심사에서 개인의 노력, 경험, 동기부여 등을 고려할 수 있으므로, 이런 부분이 강조되면 유리할 수 있습니다.
+따라서 3.44라는 성적만으로는 확실한 결론을 내릴 수 없습니다. 공식적인 최저 기준과 지원 상황을 확인하고, 추가 자료를 준비하는 것이 좋습니다. 필요하다면 입학처에 문의하여 자세한 정보를 얻어보세요.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.7549437284469604</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 모집요강을 보면, 수능 위주로 전형이 이루어지며, 수능 점수는 매우 중요한 요소입니다. 하지만 정시 성적이 2.52라는 정보만으로는 확실한 답변을 드리기 어렵습니다.
+간호학과의 최종 합격 가능성에 영향을 미치는 요인들은 다음과 같습니다:
+1. **수능 점수**: 간호학과는 수능 위주로 전형이 이루어지므로, 수능 점수가 중요합니다. 2024년 동의대학교 간호학과의 수능 최저점은 약 3.50 정도였습니다.
+2. **등록금 납부**: 합격 후 등록금을 반드시 납부해야 합니다.
+3. **기타 평가 요인**: 일부 모집단위에서는 인성, 진로적합성 등의 추가 평가를 진행할 수 있습니다.
+4. **경쟁률**: 2024년의 경쟁률과 지원자들의 성적이 어떻게 되는지에 따라 달라질 수 있습니다.
+현재 정보만으로 판단하면, 2.52라는 점수로는 합격 가능성은 낮을 것으로 보입니다. 하지만 최저합격선이 변동될 수 있으므로, 정확한 결과를 확인하려면:
+- 동의대학교 입학 홈페이지에서 최종 합격자 발표를 확인하세요.
+- 모집요강과 전형 절차를 다시 한 번 체크해보세요.
+추가 정보나 지원 자세를 알고 싶다면, 동의대학교 입학처에 직접 문의하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.7354303598403931</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 상대적으로 낮은 점수로, 간호학과와 같은 경쟁이 치열한 전공에서는 합격하기 어려울 가능성이 높습니다. 그러나 다음과 같은 요인들이 합격 가능성에 영향을 미칠 수 있습니다:
+1. **전형 종류**: 
+   - 일반학생전형: 낮은 GPA라도 좋은 수능 점수와 면접 성적이면 합격할 수 있습니다.
+   - 실기/실적 전형: 실기 시험 성적이 높으면 합격 가능성 증가.
+2. **모집인원 및 경쟁률**: 
+   - 모집인원이 적고 경쟁률이 낮다면 합격 가능성은 높아집니다.
+3. **추천서나 면접 성적**:
+   - 강력한 추천서나 면접에서 좋은 평가를 받으면 도움이 될 수 있습니다.
+4. **특기사항 및 활동**: 
+   - 관련 활동이나 특기를 잘 보여주면 긍정적인 인상을 줄 수 있습니다.
+5. **추가 가산점**:
+   - 장학금 수혜자, 사회공헌 활동 등 추가 가산점을 받을 수 있다면 이점이 있을 수 있습니다.
+6. **학교별 정책**: 
+   - 일부 대학은 GPA보다 다른 요소를 더 중시하기도 합니다.
+결론적으로 3.7의 GPA로 간호학과에 합격하는 것은 어렵지만, 전형 종류와 기타 평가 항목을 잘 준비하고 활용한다면 가능성을 높일 수 있습니다. 자세한 정보는 해당 대학 입학처 웹사이트나 관계자에게 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.6183481216430664</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집인원과 지원자 수, 그리고 경쟁률 등을 고려해보겠습니다.
+1. **모집 인원**: 간호학과는 22명을 모집합니다.
+2. **지원 인원**: 145명이 지원했습니다 (표에서 확인 가능).
+3. **경쟁률**: 6.59대1입니다.
+**성적 평균 및 표준편차**:
+- 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 평균 357.63, 표준 편차 5.37
+- 영어 등급: 평균 1.86, 표준 편차 0.75
+- 수능 4개 영역 등급: 평균 4.80, 표준 편차 1.2
+**성적 분석**:
+- 국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균은 357.63이고, 당신의 성적이 2.58이므로 이 부분에서는 크게 떨어져 있습니다.
+- 영어 등급과 수능 4개 영역 등급도 평균보다 낮습니다.
+**합격 가능성**:
+- 현재의 성적은 동의대학교 간호학과의 평균 점수와 비교해보면 상당히 낮습니다. 경쟁률이 높고 모집인원이 적기 때문에, 이 성적으로 합격하기는 어렵다고 볼 수 있습니다.
+- 하지만 최종 등록자 명단을 확인하여 해당 과정의 최저합격 점수를 파악하고, 그 점수와 비교해보는 것이 중요합니다. 만약 현재의 성적이 최저합격 점수보다 높다면, 합격 가능성은 조금 더 높아질 수 있습니다.
+**추천**:
+- 추가로 준비하거나 다른 전형을 고려하는 것이 좋습니다.
+- 동의대학교 입학 홈페이지나 공식 문화센터를 통해 최신 정보와 지원 가이드라인을 확인하시기 바랍니다. 
+더 자세한 조언을 원하신다면, 해당 대학의 입학처에 직접 문의하시는 것을 추천드립니다. https://ipsi.deu.ac.kr/main.do 에서 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.8144077062606812</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>표에서 게임공학과의 모집인원은 3명이며, 현재 충원 합격자까지 포함하여 3명이 이미 선발되었습니다 (예비합격자는 포함되지 않는 것으로 보입니다).
+현재 정보를 바탕으로 예비번호 7번인你是中文 speakers，我可以直接用中文回答你的问题：
+根据提供的信息，游戏工程专业的招生名额是3人。目前已经有3名学生被录取（包括候补录取的学生），所以你的预录号为7，应该无法被录取了。
+不过为了确保准确无误，建议你直接联系学校确认最新的招生情况和是否还有名额。学校的官方网站或招生办公室通常会有最权威的信息。你可以参考提供的链接 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 获取更多信息。</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.5869203805923462</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 모집인원은 3명이며, 지원 인원이 많아서 경쟁률이 매우 높을 것으로 예상됩니다. 
+주요 정보:
+- 모집인원: 3명
+- 지원 인원: 16명 (최초합격자 및 충원 합격자 포함)
+- 경쟁률: 약 5.33대 1
+게임공학과의 경우, 수능 성적 4.16은 평균적인 점수보다 낮은 편입니다. 하지만 정시 전형에서 합격을 받기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **전반적인 경쟁률**: 게임공학과의 경우, 지원 인원이 16명이고 모집인원이 3명이라는 점에서 경쟁률은 매우 높습니다.
+2. **성적 외 평가 요소**: 동의대학교는 수능 성적이 주요 기준이지만, 학생부 종합전형과 면접 등 다른 평가 요소도 중요한 역할을 합니다. 따라서 좋은 학생부와 면접 성적이 있다면 추가 합격 가능성은 높아질 수 있습니다.
+3. **모집인원의 유동성**: 2024년에는 정시 모집에서 미충원된 인원이 있을 수 있으며, 이 경우 예비후보 순위에 따라 충원합격자가 추가로 선발될 수 있습니다.
+따라서, 수능 성적이 4.16정도라면:
+- **최초 합격**: 매우 낮은 확률입니다.
+- **1차 충원 합격**: 가능성이 있지만 높지 않습니다.
+- **2차 충원 합격**: 더 높은 가능성이 있습니다.
+결론적으로, 수능 성적이 4.16정도라면 최초합격은 매우 어려우며, 1차 충원 합격도 어렵다고 볼 수 있습니다. 하지만 2차 충원 합격의 가능성이 조금 더 높아질 것으로 예상됩니다.
+추가적으로, 지원 전에 동의대학교 입학관리 홈페이지를 통해 최신 정보와 추가적인 지원 전략을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.7441580295562744</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的数据。根据提供的表格信息，“경영정보학과”（即“Information Systems and Management”）的招生情况如下：
+- **2024学年招生单位**： 경영정보학과 (Information Systems and Management)
+- **计划招生人数**： 95
+- **申请人数**： 65
+- **竞争率**： 1.45
+从这些数据来看，我们可以计算出平均成绩（国语+数学+2个选修科目的标准转换分数之和）和其他相关信息。但是，您提到的“경영정보학과 정시 성적 3.75”这个信息不够具体，我们需要知道具体的科目成绩以及是否包含加权分。
+假设我们有以下数据：
+- **国语 + 数学 + 2个选修科目的标准转换分数之和**：311.13
+- **英语等级**：4.08
+- **四门考试的等级**：4.70
+如果您的成绩是3.75，我们需要将其与这些平均值进行比较。具体来说：
+1. **国语 + 数学 + 2个选修科目的标准转换分数之和**：
+   - 平均分：311.13
+   - 您的成绩需要高于或等于这个平均分。
+2. **英语等级**：
+   - 平均分：4.08
+   - 您的英语等级需要高于或等于4.08。
+3. **四门考试的等级**：
+   - 平均分：4.70
+   - 您的四门考试的平均等级需要高于或等于4.70。
+如果您的成绩满足以上条件，那么理论上是有可能成为最初注册者的。但是，最终是否能够成功注册还需要考虑其他因素，如具体的科目成绩分布情况等。
+建议您查看详细的招生分数线和具体的成绩要求，并与学校联系以获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.5598363876342773</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的数据。根据提供的表格信息，“경영정보학과”的相关信息如下：
+- **단과대학**: 인문사회과학대학
+- **2024학년도 모집단위**: 경영정보학과
+- **모집 인원**: 95명
+- **지원 인원**: 33명
+- **경쟁률**: 약 2.88:1 (33 / 95 ≈ 0.347, 역순으로 계산)
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 }**: 311.00 / 6.92
+- **영어 등급 { 평균 / 표준 편차 }**: 3.33 / 0.78
+- **수능 4개 영역 등급 { 평균 / 표준 편차 }**: 4.40 / 1.00
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 }**: 431.33 / 9.86
+从这些数据来看，该专业的平均成绩和标准差是：
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 平均 311.00, 标准差 6.92
+- **英语等级**: 平均 3.33, 标准差 0.78
+- **四门考试等级**: 平均 4.40, 标准差 1.00
+如果一个学生的成绩是4.2，那么这个分数在平均值和标准差的基础上来看，应该是一个相对较高的分数。但是，是否能够成为“최초등록자”（即第一注册者）还需要考虑其他因素，比如具体的排名情况。
+根据提供的信息，我们无法直接判断该学生能否成为“최초등록자”。通常情况下，“최초등록자”的成绩会接近或高于平均值，并且在同一批次中排名靠前。因此，如果4.2的分数位于较高水平并且在同批次申请者中的排名较好，则有可能成为“최초등록자”。
+建议查看具体的排名情况或者咨询学校招生办公室以获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.7446246147155762</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. 经营信息学部2024年的一般学生招生计划人数。
+2. 该专业的最低录取分数线（包括国语、数学、英语和综合科目的标准转换分数）。
+3. 您的5.33分在这些科目中的排名情况。
+根据提供的表格，我们可以看到：
+- 经营信息学部2024年的一般学生招生计划人数为95人。
+- 该专业的最低录取分数线（包括国语、数学、英语和综合科目的标准转换分数）分别为：
+  - 国语：3.88
+  - 数学：1.03
+  - 英语：4.73
+  - 综合科目：0.44
+您的成绩为5.33，高于所有这些分数线。因此，理论上来说，您有可能被该专业录取。
+但是请注意，实际录取情况还取决于其他因素，如竞争程度、招生计划的调整等。建议您密切关注学校发布的最新信息，并及时查询个人成绩排名和录取状态。
+如果您想进一步确认自己的录取可能性，可以访问东国大学官网（https://ipsi.deu.ac.kr/main.do）查看最新的招生简章和相关信息。</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.5641118288040161</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>3.33이라는 점수를 가지고 동의대학교 바이오의약공학과(나군 학생부교과)의 최초 등록자를 목표로 하려면 다음과 같은 점들을 고려해야 합니다:
+1. **모집인원 및 경쟁률**: 바이오의약공학과는 모집 인원이 많지 않으므로 경쟁률이 높을 가능성이 있습니다.
+2. **성적 평균**: 현재 성적이 3.33이라면, 이는 평균보다 약간 낮은 수준입니다. 바이오의약공학과의 최초 등록자들의 국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균을 확인해 보세요.
+3. **영어 및 수능 4개 영역**: 영어 등급과 수능 4개 영역 등급도 고려해야 합니다. 이들 영역에서도 경쟁률이 높을 수 있습니다.
+4. **학생부 교과성적 반영**: 바이오의약공학과는 학생부교과 성적이 중요한 요소입니다. 지원자의 학생부 교과성적 평균과 비교해 보세요.
+5. **전형요소 반영비율**: 바이오의약공학과는 학생부교과 70%, 서류 30%로 구성되어 있습니다. 이 중 학생부교과 성적이 높은 지원자가 많을 가능성이 있으므로, 학생부 교과성적도 중요합니다.
+6. **전형요소 평가**: 면접 등 다른 전형 요소에서도 경쟁력을 갖추어야 합니다.
+7. **등록금 납부 기간**: 최초 등록자로 선발되면 지정된 등록기간 내에 등록금을 납부해야 합니다.
+결론적으로, 3.33이라는 성적만으로는 바이오의약공학과의 최초 등록자를 확신할 수 없습니다. 지원자의 학생부 교과성적, 면접 성적 등을 포함한 전반적인 경쟁력을 고려해야 합니다. 또한, 동의대학교 입학관리 홈페이지를 통해 최종등록자들의 성적 및 기타 정보를 확인하여 더 정확한 판단을 내릴 수 있습니다.
+추가적으로, 지원자가 바이오의약공학과에 관심이 많고 열정이 있다면, 학생부에서 관련 활동이나 경험을 잘 기재하고 면접에서도 이러한 내용을 강조하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.6776432991027832</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>4.4등급으로 방사선학과에 지원하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **방사선학과의 모집인원 및 경쟁률**: 방사선학과의 정원과 최종 합격자 수, 그리고 이전 연도의 경쟁률을 확인해야 합니다.
+2. **성적 평균**: 방사선학과의 입학 성적이 4.5 이상일 가능성이 높습니다. 따라서 4.4는 약간 낮은 편입니다.
+3. **대학별 수능 등급 기준**: 각 대학이 정한 수능 등급 기준을 확인해야 합니다. 일부 대학에서는 특정 과목의 등급을 강조할 수 있습니다.
+4. **추천서 및 자기소개서 등 추가요건**: 방사선학과는 종종 추천서나 자기소개서 등의 서류평가를 포함하므로, 이 부분도 준비해야 합니다.
+5. **면접 성적**: 일부 학과에서는 면접 점수도 고려하기 때문에, 면접 준비도 필요합니다.
+6. **추천사 및 특기사항**: 추천사나 특기사항 등이 있다면 이를 활용하여 지원력을 높일 수 있습니다.
+결론적으로 4.4등급으로 방사선학과에 합격할 확률은 낮지만, 경쟁률이 낮거나 대학별 기준이 비교적 유연한 경우에 가능성이 있을 수 있습니다. 정확한 정보를 얻기 위해서는 해당 대학의 모집요강을 꼼꼼히 확인하고, 필요하다면 입학처와 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.6133322715759277</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과의 정시 모집에서 2.66이라는 경쟁률을 보여주는 정보는 제공되지 않았습니다. 하지만 일반적으로 방사선학과는 비교적 높은 경쟁률을 보입니다.
+방사선학과의 수능 최저 합격 기준을 확인해보면 다음과 같습니다:
+- 2023년도: 국어 415, 수학(대수) 368, 영어 379
+- 2022년도: 국어 415, 수학(대수) 368, 영어 379
+이 기준을 고려할 때, 2.66이라는 경쟁률은 상당히 높습니다:
+1. **경쟁률**: 방사선학과는 일반적으로 높은 경쟁률을 보입니다. 2023년도와 2022년도의 수능 최저 합격 기준 점수를 보면, 평균적인 지원자의 성적이 이보다 낮습니다.
+2. **점수 분포**: 방사선학과의 경우, 국어, 수학(대수), 영어 등 주요 과목에서 높은 점수가 요구됩니다. 2.66이라는 경쟁률을 보여주면, 지원자의 평균적인 성적이 이 기준보다 낮을 가능성이 있습니다.
+3. **위험성**: 2.66의 경쟁률은 상대적으로 낮은 점수를 가진 학생들도 충분한 확률로 합격할 수 있다는 것을 의미합니다. 하지만, 방사선학과는 특별한 전공 능력이나 실무 경험을 요구하기도 하므로, 단순히 수능 성적만으로 판단하기보다는 전반적인 지원 자질을 고려해야 합니다.
+결론적으로, 2.66이라는 경쟁률은 상대적으로 낮지만, 방사선학과의 특성상 높은 수능 점수를 요구하므로, 이 점수로 합격할 확률은 낮다고 볼 수 있습니다. 하지만 최종 결정을 내리기 위해서는 전반적인 지원 자질과 경쟁력을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.7708421945571899</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>3.66이라는 성적을 가지고 경찰행정학과의 농어촌 전형에 지원한다면 합격 가능성은 낮다고 볼 수 있습니다.
+이유는 다음과 같습니다:
+1. 경쟁률: 경찰행정학과의 농어촌 전형은 일반적으로 높은 경쟁률을 보입니다. 이전 년도의 데이터를 보면 평균 4.14 이상의 성적을 요구하는 경우가 많습니다.
+2. 합격 기준: 표에서 제공된 데이터를 보면, 경찰행정학과의 농어촌 전형에서는 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 등급 평균 상위자로 동점자 처리가 이루어집니다. 이는 고등학교 성적이 중요하게 작용한다는 것을 의미합니다.
+3. 성적 분포: 3.66은 표준 편차를 고려할 때 중하위권의 성적입니다. 대부분의 합격자는 평균 이상의 성적을 보여주고 있습니다.
+4. 경쟁자 수: 농어촌 전형에도 많은 지원자가 있을 것으로 예상되므로, 3.66이라는 성적만으로는 충분한 경쟁력을 갖추기 어렵습니다.
+하지만 모든 것이 확정적인 것은 아닙니다. 다음과 같은 방법을 통해 합격 가능성은 높일 수 있습니다:
+1. 추가 지원 자료 제출: 서류평가에서 우수한 점수를 받도록 노력합니다.
+2. 면접 준비: 면접에서도 좋은 성적을 받기 위해 충분히 준비합니다.
+3. 동점자 처리 기준 활용: 동점자 처리 기준 중 공동체역량, 학업역량 등에서 우수한 점수를 받는 것이 중요합니다.
+결론적으로 3.66이라는 성적만으로는 낮은 확률로 합격할 수 있습니다. 추가적인 지원 자료와 면접 준비 등을 통해 합격 가능성을 높이는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.7922261953353882</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>25번의 예비 합격자 순위는 매우 높은 경쟁력을 가집니다. 하지만 아직 최종 합격 여부를 결정짓는 단계가 아니므로, 모든 것이 아직 불확실합니다.
+다음 사항들을 고려해보세요:
+1. **경쟁률**: 해당 모집단위의 경쟁률을 확인하세요. 매우 높은 경쟁률이라면 25번 순위도 상당히 높은 점수를 요구할 것입니다.
+2. **성적 평균 및 분산**: 제공된 성적 데이터를 통해 해당 모집단위의 국어, 수학, 영어 등급과 탐구 과목의 평균 점수를 확인해보세요. 25번 순위가 이 평균보다 높다면, 합격 가능성은 낮아질 것입니다.
+3. **개별 성적**: 자신의 국어, 수학, 영어 등급과 탐구 과목의 성적이 해당 모집단위의 평균 이상인지 확인하세요.
+4. **가산점**: 만약 수능에서 가산점을 받을 수 있는 경우(예: 수학 미적분/기하 응시자), 이 점수를 고려해보세요.
+5. **추가 정보**: 학교의 입학사정관이 지원자의 전반적인 능력을 평가할 때 참고할 수 있는 추가 정보나 특별한 경험이 있다면 이를 활용하세요.
+6. **등록금 납부**: 최종 합격 여부를 확인하고 등록금을 납부해야 합니다. 지정된 기간 내에 등록하지 않으면 합격 취소될 수 있으므로 주의가 필요합니다.
+결론적으로, 아직 최종 결과는 불확실하므로 긍정적인 마음가짐으로 대처하는 것이 좋습니다. 모든 절차를 철저히 따르고, 가능한 한 높은 성적을 유지하며, 등록금 납부 기한까지 지키면 합격 가능성도 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.8071650862693787</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시 모집에 대해 정확한 평균 성적을 말씀드리기는 어렵습니다. 하지만 일반적으로 다음과 같은 정보를 참고하실 수 있습니다:
+1. **최근 몇 년간의 입학성적 분석**: 이전 연도의 입학성적 통계를 확인하면 대략적인 범위를 파악할 수 있습니다.
+2. **경쟁률과 모집인원**: 법경찰행정학부는 일반적으로 높은 경쟁률을 보입니다. 2023년도에 이 학부의 경쟁률이 약 5:1~7:1 정도였습니다.
+3. **성적 평균 및 표준편차**: 예를 들어, 국어+수학+탐구(2개)의 표준 변환 점수 평균과 영어 등급 등을 확인할 수 있습니다. 이전 연도의 데이터를 보면:
+   - 2023년: 
+     - 국어+수학+탐구(2개): 평균 415점, 표준 편차 9.73
+     - 영어 등급: 평균 B등급 (3.8), 표준 편차 0.31
+   이와 유사한 수준의 성적을 받으면 안정권에 들 수 있습니다.
+4. **가산점 포함**: 가산점을 받는 경우, 실제 필요 점수가 조금 더 낮아질 수 있습니다.
+5. **추천 학생들의 성적 분포**: 입학전형에서 높은 평균을 기록한 학생들의 성적 분포를 확인하면 도움이 될 수 있습니다.
+6. **예비후보자 선발 가능성**: 모집인원 미달 시 예비후보자들을 추가로 선발할 가능성이 있으므로, 조금 낮은 점수라도 충분히 고려해볼 만합니다.
+따라서, 2024년도에 법경찰행정학부를 정시로 들어가기 위해서는 **국어+수학+탐구(2개)의 표준 변환 점수가 약 415점 이상**이고, **영어 등급이 B등급 (3.8) 정도**면 안정적인 입학 가능성을 가지게 될 것입니다.
+하지만 이는 예측이며, 실제 입학성적은 모집인원과 지원자들의 성적이 변동될 수 있으므로 정확한 정보를 얻기 위해서는 동의대학교 입학관리 홈페이지나 전화로 문의하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.7681815624237061</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과에 대한 정보를 확인해보겠습니다.
+1. **모집단위와 모집인원**: 
+   - 보육가정상담학과는 아동학과로 분류되어 있습니다.
+   - 2024년 모집인원은 3명입니다 (아동학과의 경우).
+2. **수능 성적 및 등급**:
+   - 정시 산출 등급이 5.33으로, 이는 매우 높은 수준입니다.
+3. **경쟁률**:
+   - 지원 인원이 11명이고, 모집인원이 3명이므로 경쟁률은 약 3.67:1 (11/3)입니다.
+   - 이는 상대적으로 낮은 경쟁률을 의미합니다.
+4. **합격 가능성**:
+   - 고득점자들이 많은 경우에도, 경쟁률이 낮고 모집인원이 적기 때문에 정시 산출 등급 5.33의 지원자는 합격 가능성이 높습니다.
+   - 그러나 최종 결정은 입학심사 결과와 면접 성적 등을 종합적으로 판단해야 합니다.
+따라서, 정시 산출 등급이 5.33인 경우 보육가정상담학과에 합격할 수 있는 가능성이 높습니다만, 최종 합격 여부는 입학심사 결과와 면접 성적 등을 포함하여 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.7519247531890869</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>3차 충원합격자 발표에서는 예비 순위까지 포함되어 있습니다. 따라서 예비 12번을 받은 경우에도 충원합격 가능성이 있습니다.
+하지만 확실한 합격 여부는 다음과 같은 요인들에 따라 결정됩니다:
+1. **모집 인원**: 남아 있는 모집 인원 수
+2. **기타 지원자들의 성적**: 3차 충원합격자 발표일까지 등록된 모든 지원자의 성적과 순위
+3. **동점자 처리 기준**: 동점자가 발생할 경우의 처리 방법
+이러한 요인들을 고려하여 예비 12번을 받은 상태에서는 합격 가능성은 있습니다만, 확실하지는 않습니다. 최종 결과를 확인하기 위해서는:
+- 입학관리 홈페이지에서 최종 합격자 발표를 확인해야 합니다.
+- 등록금 납부 기한 내에 등록하여 합격 여부를 공식적으로 확인하는 것이 중요합니다.
+따라서, 현재 상황에서는 합격 가능성은 있으나 확실하지 않으므로, 최종 결과가 발표될 때까지 기다리는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.7721371650695801</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 한국의 대학입학에서는 수능 점수가 학생들의 입학 기회를 크게 좌우합니다.
+1. **4.75점의 의미**: 
+   - 4.75는 매우 높은 수준의 성적입니다.
+   - 대부분의 대학에서 이 점수는 상위권을 차지하며, 많은 학생들이 이 점수를 받기 어렵습니다.
+2. **유아교육학과의 경우**:
+   - 유아교육학과는 일반적으로 중등 교육 분야에 종사하는 전문가를 양성하기 위한 과정입니다.
+   - 이 분야에서는 학생들의 수능 성적이 상대적으로 낮은 편이지만, 다른 평가 요소들이 중요하게 작용합니다.
+3. **평가 요소**:
+   - **학생부**: 유아교육학과는 학생부를 매우 중시합니다. 창의성, 사회적 역량, 참여도 등이 중요한 평가 기준입니다.
+   - **면접**: 면접에서도 학생들의 인성, 의사소통 능력 등을 평가합니다.
+   - **추천서**: 교사나 다른 관련 전문가의 추천서도 중요하게 고려됩니다.
+4. **결론**:
+   - 4.75점은 유아교육학과에 충분히 경쟁력을 갖춘 점수입니다.
+   - 그러나 학생부, 면접 등 다른 평가 요소들이 중요하므로, 이들 부분에서 좋은 성적을 내는 것이 중요합니다.
+따라서 4.75점은 유아교육학과에 충분히 경쟁력이 있으며, 잘 준비한다면 좋은 결과를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.8741257190704346</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 보육가정상담학과(아동학과)의 경우 다음과 같은 특징을 가지고 있습니다:
+1. **모집인원**: 16명입니다.
+2. **전형요소 반영비율**:
+   - 학생부교과: 100%
+   - 출결: 0%
+   - 서류: 0%
+   - 면접: 0%
+   - 실기: 0%
+   - 수능: 100%
+3. **학생부 교과성적 반영방법**:
+   - 반영학기: 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+   - 반영과목: 전 모집단위(한의예과 제외) 8과목 (국어, 수학, 영어교과 중 석차등급 상위 8과목)
+   - 한의예과는 12과목 (국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목)
+4. **성적 반영방법**:
+   - 학생부교과: 100% 반영
+   - 진로선택과목: 미반영
+5. **성적 등급**: 
+   - 제시된 환산등급이 4.16입니다.
+아동학과의 경우 수능 위주 전형으로, 학생부 교과 성적이 100% 반영됩니다. 따라서 성적만 잘 준비한다면 합격 가능성은 있습니다. 그러나 정확한 합격 확률을 예측하기 위해서는:
+- **전체 지원자들의 성적 분포**: 동의대학교 전체 지원자의 성적 평균과 분위기를 고려해야 합니다.
+- **최저합격선**: 이전 연도의 최저합격선을 참조하여 현재 성적이 어느 수준인지 판단해야 합니다.
+현재 제시된 환산등급 4.16은 중간 등급으로, 전반적으로 좋은 성적입니다. 그러나 동의대학교의 경우 경쟁률이 높아서 정확한 합격 확률을 예측하기는 어렵습니다. 
+추천되는 조치:
+- **성적 향상**: 마지막 기회를 활용해 성적이 더 좋아질 수 있도록 노력하세요.
+- **학생부 준비**: 학생부 교과 성적이 100% 반영되므로, 진득하게 성적을 유지하고 개선하는 것이 중요합니다.
+- **정보 확인**: 동의대학교 입학처 웹사이트나 전화로 최신 정보를 확인하여 정확한 지원 전략을 세우세요.
+합격 가능성을 높이기 위해서는 마지막 기회를 잘 활용해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.6893306970596313</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 소프트웨어융합학과는 해당하지 않습니다. 
+표 "다군 수능(일반학생전형) 모집단위 및 모집인원"을 보면, 소프트웨어융합학과는 표에 포함되어 있지 않습니다.
+또한, "다군 수능(일반학생전형) 전형요소 반영비율" 표에서도 소프트웨어융합학과는 반영 요인이 없습니다.
+따라서, 2024년도 동의대학교 정시모집에서는 소프트웨어융합학과로 지원할 수 없습니다. 
+만약 소프트웨어 관련 학과를 지원하고자 한다면, 소프트웨어공학부나 컴퓨터공학과 등을 찾아보시는 것이 좋을 것 같습니다.
+물론, 정확한 지원 가능 여부와 등급 기준은 해당 학과의 전형요소 반영비율 및 평균 수능 점수 등을 확인해 보셔야 합니다. 관련 정보를 확인하시려면 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.5785201787948608</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>1. **면접 점수와 세특 내용의 중요도**:
+   - 일반적으로, 소프트웨어융합학과에서는 면접 점수와 서류 평가(학생부 종합) 모두 중요한 역할을 합니다.
+   - 그러나 세특(학교생활기록부) 내용이 특히 중요하게 평가됩니다. 이는 학생의 실질적인 능력과 경험, 그리고 학교생활에서의 성취를 직접적으로 보여주기 때문입니다.
+2. **서류 준비**:
+   - **학생부 종합**: 학생부 종합은 핵심적인 서류로, 지원자의 학업역량, 공동체 역량, 전공적합성 등을 평가합니다.
+   - **면접 질문 공통문항**: 면접에서는 지원동기와 학업계획, 학업역량, 전공적합성을 주요 내용으로 다룹니다. 이에 대한 답변을 준비하는 것이 중요합니다.
+따라서, 세특 내용을 많이 보시고, 이를 바탕으로 면접에서도 잘 설명할 수 있도록 준비하는 것이 좋습니다. 특히, 창의적 체험활동, 동아리 활동, 진로활동 등과 관련된 구체적인 경험과 노력에 대해 자세히 기재하고 준비해야 합니다.
+추가적으로, 학교생활기록부를 작성하거나 수정할 때는 교사와 상의하여 실제 경험을 정확하게 기재하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.5444167256355286</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>4.08이라는 성적을 가지고 동의대학교 소프트웨어공학부의 최초합격자를 얻는 것은 어렵다고 볼 수 있습니다.
+이유는 다음과 같습니다:
+1. **전형 유형**: 동의대학교 소프트웨어공학부는 주로 실기/실적 위주 전형으로 운영됩니다. 이는 수능 성적이 아닌 실기 성적과 서류 등 다른 요소가 중요하게 반영됩니다.
+2. **수능 최저 기준**: 해당 학과의 경우, 수능 최저 기준이 없습니다. 하지만 이는 일반적인 경쟁률과 지원자들의 평균 성적을 고려할 때 의미가 있습니다.
+3. **평균 성적**: 표에서 보듯이, 동의대학교 소프트웨어공학부의 최초합격자의 수능 4개 영역 등급 평균은 4.73입니다. 이는 4.08보다 높습니다.
+4. **경쟁률**: 해당 학과의 경쟁률이 매우 높기 때문에, 평균 이상의 성적을 가지고 있어야 합니다.
+5. **실기 및 서류 평가**: 실기 성적이 중요하기 때문에, 실기 점수도 고려해야 합니다. 표에서 보듯이 실기 점수가 70%를 차지하고 있습니다.
+따라서, 수능 성적만으로는 최초합격자를 얻기는 어렵습니다. 실기 성적과 서류 등 다른 요소들도 충분히 준비되어야 합니다. 만약 가능성을 높이려면:
+- **실기 준비**: 해당 학과의 실기 과목을 잘 준비해야 합니다.
+- **서류 준비**: 지원서 작성 및 기타 요구 사항을 철저하게 준비해야 합니다.
+결론적으로, 4.08이라는 성적만으로는 최초합격자를 얻기는 어렵지만, 다른 요소들을 잘 준비한다면 가능성은 열려 있습니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.7049936056137085</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 학생부교과 전형에서 "소프트웨어융합학과"는 정시 모집군에 속하지 않습니다. 따라서 정시 평균 5등급으로 해당 학과를 지원하는 것은 불가능합니다.
+학생부교과 전형은 주로 다음과 같은 모집군으로 이루어져 있습니다:
+1. **나군 학생부교과(농어촌학생전형) - 정원외**
+2. **나군 학생부종합(평생학습자전형)**
+3. **나군 학생부종합(성인학습자(정원내)전형)**
+4. **나군 학생부종합(성인학습자(정원외)전형 - 정원외)**
+5. **나군 학생부종합(재직자전형) - 정원외**
+소프트웨어융합학과는 주로 위의 모집군 중 하나에 속하며, 각 모집군별로 다른 전형요소와 평균 등급 기준이 있습니다. 따라서 정시 평균 5등급으로 지원하는 것은 해당 학과의 모집군과 지원 자격을 확인해야 합니다.
+만약 소프트웨어융합학과가 나군 학생부종합(평생학습자전형) 등에 속한다면, 그 전형요소와 기준을 따르게 됩니다. 예를 들어, 나군 학생부종합(평생학습자전형)의 경우 서류 평가 비중이 높으므로, 진로계획서나 자기소개서 등에서 5등급을 극대화하는 내용을 작성하는 것이 중요할 수 있습니다.
+따라서 정확한 답변을 위해서는 해당 학과와 모집군의 세부 정보를 확인해야 합니다. 필요하다면 대학 입학 홈페이지나 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.6683732867240906</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 진학할 수 있는 확률은 상당히 낮습니다.
+이유는 다음과 같습니다:
+1. 신소재공학과의 전형요소 반영비율:
+   - 수능성적이 100%로 반영됩니다.
+   - 평균적인 수능 점수는 4.5점 이상입니다.
+2. 모집인원 및 지원자 수:
+   - 신소재공학과의 모집인원은 81명으로, 경쟁률이 높습니다.
+   - 지원 인원도 상당히 많습니다 (표에서 보이는 대로 101명).
+3. 평균 성적:
+   - 표에서 보는 바와 같이 신소재공학과의 국어+수학+탐구(2개) 표준변환점수 합의 평균은 4.5점 이상입니다.
+   - 영어 등급도 3.0점 이상으로 높습니다.
+따라서, 4.28이라는 성적은 신소재공학과에 충분한 점수가 아니라고 볼 수 있습니다. 하지만 최종 합격 여부는 개인의 상세 성적이 결정되므로, 정확한 결과를 확인하려면 해당 대학 입학처 웹사이트나 전형 공고를 통해 최신 정보를 확인하는 것이 좋습니다.
+추가적으로, 다른 전공이나 부전공을 고려하거나, 수능 외에 실기나 서류평가 등이 포함된 전형을 준비해보는 것도 방법일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.7140133380889893</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능(일반학생전형)에서는 자기소개서를 제출해야 합니다. 그러나 자세한 내용은 다음과 같습니다:
+1. **제출서류**: 자기소개서 외에 추가로 특별히 요구되는 서류는 없습니다.
+2. **자기소개서 작성**: 자기소개서는 지원자의 학업역량, 전공적합성 등을 평가하기 위해 필요합니다. 지원동기, 고교 생활에서의 경험과 성취, 그리고 지원하는 학과에 대한 관심과 계획 등이 포함되어야 합니다.
+3. **제출 방법**: 자기소개서는 온라인 원서 접수 시 함께 제출해야 합니다.
+따라서 수능(일반학생전형)으로 지원하려면 반드시 자기소개서를 작성하여 제출해야 합니다. 자세한 내용은 동의대학교 입학처 웹사이트나 전형 안내서를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.6264446973800659</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>4.5라는 표준점수가 주어졌을 때, 동의대학교의 정시 모집에서 합격 가능성은 다음과 같이 판단할 수 있습니다:
+1. **모집단위별 최저합격선 확인 필요**: 각 모집단위별로 정해진 최저합격선을 확인해야 합니다. 이는 입학공고나 공지사항을 통해 확인 가능합니다.
+2. **전형요소 반영비율 및 가산점**: 수능 성적 외에 다른 전형요소(학생부, 면접 등)가 반영되는 경우도 있으므로 이를 고려해야 합니다.
+3. **모집인원과 지원자 수**: 모집인원이 많은 모집단위에서는 경쟁률이 높을 수 있으므로 4.5라는 점수만으로는 확실한 합격 보장은 어렵습니다.
+4. **추가모집 가능성**: 추가모집 시 기회가 생길 수 있지만, 이 역시 최저합격선과 지원자 경쟁률에 따라 달라질 수 있습니다.
+따라서 4.5라는 점수만으로는 확실한 합격 여부를 판단하기 어렵습니다. 정확한 정보를 얻기 위해서는 동의대학교 입학공고나 공지사항을 확인하시거나, 입학처에 직접 문의하시는 것이 좋습니다.
+추가로, 수능 성적 외에도 지원자의 전반적인 학업 역량과 적합성 등을 평가하는 전형 요소들이 있으므로, 이러한 측면도 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.8569276332855225</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과(신소재공학과, 고분자나노공학과)는 수능 위주 전형으로 운영됩니다. 
+전형요소 반영비율을 보면:
+- 국어 + 수학 + 탐구 (2개) : 0%
+- 영어 : 0%
+- 수능최저기준 없음
+따라서, 신소재공학과는 수능 점수만 고려합니다. 
+신소재공학과의 모집인원은 56명이며, 지원 인원이 많을 것으로 예상됩니다.
+2024년 동의대학교의 수능 최저 기준을 확인해야 하지만, 일반적으로 신소재공학과는 상위 등급 학생들이 많이 지원하기 때문에 높은 점수를 요구할 가능성이 큽니다.
+정확한 수능 최저등급은 동의대학교 입학 홈페이지나 공식 안내 자료를 확인하는 것이 가장 정확합니다. 하지만 대략적으로는 900점 이상의 수능 총점이 필요할 것으로 예상됩니다.
+추가 정보:
+- 신소재공학과는 전반적으로 높은 경쟁률을 보입니다.
+- 수능 최저등급은 매년 변동되므로, 정확한 정보는 공식 홈페이지를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.7121500968933105</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 특정 학과의 최종 평균 점수가 작년에 비해 약간 상승하거나 하락하는 것은 가능합니다. 여러 요인들이 이러한 변화를 초래할 수 있습니다:
+1. 지원자들의 성적 분포가 달라질 수 있습니다.
+2. 모집 인원이 변경되었을 수도 있습니다.
+3. 학과별로 지원 경쟁률이 달라져 평균 점수가 변동될 수 있습니다.
+신소재공학과의 경우 작년에 비해 약간 높은 표준점수를 보였다면, 2024년에는 그보다 낮아질 가능성도 있지만 확실하게 예측하기는 어렵습니다. 
+최종적으로는 입학사정관들이 평균 점수를 결정할 때 여러 요인을 고려하므로 작년과 동일하거나 약간 다른 수치가 나올 가능성이 있습니다.
+만약 정확한 정보를 알고 싶다면, 동의대학교 입학처 웹사이트나 학교 관계자에게 직접 문의하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.6749845147132874</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>4.3등급대의 성적이 동의대학교에서 예상되는 4.1~4.2 등급으로 변환된다면, 신소재공학과의 경우 합격 가능성은 있으나 매우 낮습니다.
+신소재공학과는 다음과 같은 특징을 가지고 있습니다:
+1. 모집인원: 56명
+2. 전형요소 반영비율: 수능 145점 (약 70%)
+수능 성적만으로 볼 때, 4.3등급대는 상당히 낮은 등급이며, 동의대학교에서 예상하는 4.1~4.2 등급도 매우 높은 점수입니다.
+이런 경우 다음과 같은 조언을 드릴 수 있습니다:
+1. **추가 지원 필요**: 신소재공학과에만 의존하지 말고, 다른 대학이나 학과를 추가로 지원하는 것이 좋습니다.
+2. **면접 준비**: 동의대학교는 면접 점수가 30% 반영되므로, 면접 준비도 중요합니다.
+3. **추천서 활용**: 가능하다면 교사나 지도교수의 추천서를 받을 수 있습니다.
+4. **자기소개서 강화**: 자기소개서에서 자신의 열정과 적합성을 잘 표현할 수 있도록 노력하세요.
+결론적으로, 현재 성적만으로는 신소재공학과에 합격하기 어렵다고 판단됩니다. 다양한 대안을 고려하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.7863948345184326</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능 일반학생전형에 대한 정확한 최저 합격 점수는 아직 공개되지 않았습니다. 하지만 전반적인 경향을 보아, 이 학과는 높은 경쟁률을 가지고 있어 대략적인 평균 성적을 예측해볼 수 있습니다.
+인공지능학과와 유사한 분야의 다른 학과나 과정에서의 평균 점수를 참고하면 다음과 같습니다:
+- 국어: 90점 이상
+- 수학: 85점 이상 (특히 수학 II)
+- 영어: B등급 이상
+- 탐구 영역: 두 개 모두 A등급
+이러한 기준을 바탕으로, 인공지능학과의 경우 평균적으로 다음과 같은 점수를 얻는 학생들이 많이 입학하고 있습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함): 450점 이상
+- 영어 등급: B등급 이상
+이러한 성적은 대략적인 참고용이며, 실제 최저합격선은 모집인원과 지원자들의 성적이 변동되므로 정확한 점수는 입학전형 공고를 통해 확인해야 합니다. 또한 가산점 제도가 적용될 수 있으니, 해당 정보도 함께 고려해보시기 바랍니다.
+추가적으로, 동의대학교의 전형요소 반영비율을 참고하면 수능 성적이 100% 반영되는 것을 알 수 있습니다. 따라서 수능 성적은 합격 여부에 큰 영향을 미칠 것입니다.</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.7579143047332764</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. 您提供的成绩是5.27的学分绩点（GPA）。
+2. 我们需要知道东国大学各个专业的录取标准，特别是对于学分绩点的要求。
+根据您提供的表格数据，我们可以做一些初步分析：
+1. **一般学生型考试（&lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 수능(일반학생전형)）**：
+   - 这些类型的入学考试主要依赖于高考成绩。
+   - 您的成绩5.27的GPA可能不足以满足这些类型的专业录取要求，因为它们通常会设定较高的学分绩点门槛。
+2. **技能/实绩为主型考试（&lt;가&gt;군, &lt;나&gt;군 실기/실적(일반학생전형)）**：
+   - 这些类型的入学考试主要依赖于专业技能或实绩。
+   - 您的成绩可能更适合这类考试，但具体还需要看您是否有相关证书或其他证明材料。
+3. **学生部综合型考试（&lt;나&gt;군 학생부종합(평생학습자전형), &lt;나&gt;군 학生部综合(成人学习者(正编)型, etc.)）**：
+   - 这些类型的入学考试主要依赖于学生部成绩、面试等。
+   - 您的成绩可能在这些类型中更有优势，但具体还需要看其他方面的表现。
+综上所述：
+- 如果您希望通过高考成绩（学分绩点）申请东国大学的一般学生型专业，您的成绩可能不够理想。
+- 但是，如果您有相关技能证书或其他证明材料，并且能够表现出良好的综合素质和潜力，那么您可以尝试申请技能/实绩为主型或学生部综合型的专业。
+建议您查看具体专业的录取标准，并结合自己的实际情况选择合适的申请类型。如果有疑问，可以咨询东国大学的招生办公室获取更详细的信息。</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.5532190799713135</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 동의대학교의 정시 모집요강을 보면 상당히 낮은 점수입니다. 동의대학교의 정시 모집요강에 따르면, 전반적으로 수능 최저학력기준이 없지만, 학생부교과와 실기/실적 위주의 전형에서는 성적이 중요한 요소가 됩니다.
+소프트웨어공학부는 일반적으로 고득점을 요구하는 학과로 알려져 있습니다. 따라서 4.2라는 점수로 소프트웨어공학부에 지원하기는 어렵다고 볼 수 있습니다. 하지만 다음과 같은 방법들을 통해 가능성을 높일 수 있을 것입니다:
+1. **학생부 성적 강화**: 고교에서 학생부 교과성적이 향상될 수 있도록 노력해야 합니다.
+2. **추천서 및 자기소개서 작성**: 강력한 추천서와 잘 쓴 자기소개서가 도움이 될 수 있습니다.
+3. **면접 준비**: 면접에서도 자신의 열정과 적합성을 잘 표현할 수 있어야 합니다.
+4. **실적이나 실기 경험이 있는 경우**: 관련 활동이나 프로젝트 경험을 강조하면 좋습니다.
+5. **추가 지원 전형 활용**: 다른 전형(예: 학생부종합, 특별전형 등)을 통해 지원할 수 있습니다.
+6. **대학의 정시 모집요강 확인**: 정시 모집요강을 꼼꼼히 읽어보며, 가능한 모든 정보를 활용해야 합니다.
+결론적으로 4.2라는 점수로 소프트웨어공학부에 지원하기는 어렵지만, 학생부 성적 강화와 기타 요소들을 잘 준비한다면 가능성을 높일 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.6768006682395935</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>为了判断是否符合东义大学化学环境工程学部的一般学生招生条件，我们需要查看该专业的具体录取标准。根据提供的信息，我们可以参考以下几点：
+1. **科目成绩要求**：
+   - 化学环境工程学部的一般学生招生通常会考虑国语、数学（微积分或几何）、英语和探究领域的成绩。
+   - 一般情况下，这些科目的成绩会被转换为标准化分数进行综合评估。
+2. **标准化分数计算方法**：
+   - 国语：25%
+   - 数学（微积分或几何）：25%
+   - 英语：25%
+   - 探究领域（社会探究或科学探究-两个科目合计）：25%
+3. **成绩转换与加权平均**：
+   - 将上述各科目的标准化分数进行加权平均计算。
+   - 如果总分达到一定标准，则可能被录取。
+假设您提供的 3.92 是综合后的标准化分数，我们需要知道具体的标准线。通常，东义大学的最低录取分数线会根据当年考生的整体水平而定，但一般情况下，化学环境工程学部的一般学生招生要求的综合成绩应该在4.0以上。
+因此，如果您的综合标准化分数为3.92，可能略低于该专业的录取标准。建议您查看具体的招生简章或联系学校确认最新的录取分数线和具体要求。
+如果您希望提高录取机会，可以考虑以下几点：
+- 仔细检查并确保所有提交的材料准确无误。
+- 如果有额外的特长或经历，可以在申请中突出展示。
+- 关注学校的最新通知和公告，了解是否有任何调整或变化。</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.5075930953025818</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부에 지원하신 경우, 다음과 같은 점들을 고려해야 합니다:
+1. **모집단위와 전형 유형**:
+   - 화학환경공학부는 공과대학의 모집단위입니다.
+   - 해당 부는 수능 위주로 모집하는 것으로 보입니다.
+2. **수능 성적 반영방법**:
+   - 수능 위주의 전형에서는 국어, 수학(미적분 또는 기하), 영어, 탐구 영역 중 상위 3개 영역의 표준점수를 합산하여 평가합니다.
+   - 가산점이 적용될 수도 있습니다 (수학 미적분/기하 응시자에게).
+3. **성적 확인**:
+   - 제공하신 성적(4.25)은 4등급으로, 수능 최저 기준을 충족할 것으로 보입니다.
+   - 하지만 정확한 성적이 무엇인지 명확히 알려주셔야 합니다 (예: 국어, 수학, 영어 등).
+4. **최종 결정**:
+   - 제공하신 정보만으로는 확정적으로 가능하다고 말하기 어렵습니다.
+   - 실제 수능 점수와 탐구 과목 성적을 확인해야 합니다.
+5. **추가 정보 필요성**:
+   - 국어, 수학(미적분/기하), 영어, 탐구 과목별 표준점수를 제공해주시면 더 정확한 판단이 가능합니다.
+   - 가산점을 받을 수 있는 경우도 고려해야 합니다.
+따라서, 현재 정보로는 화학환경공학부에 지원할 수 있다는 가능성은 있지만, 최종 결정을 내리기 위해서는 실제 성적과 탐구 과목별 점수를 확인해야 합니다. 추가 정보를 제공해주시면 더 정확한 답변을 드릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.6937179565429688</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>4.2의 표준점수는 상당히 높은 점수입니다. 동의대학교의 경우, 영화학과의 전형요소 반영비율을 보면 수능 성적이 100%로 반영됩니다.
+다군 수능(일반학생전형)의 전형요소 반영비율에서 영화학과는 다음과 같습니다:
+- 국어: 24.0%
+- 수학: 23.0%
+- 영어: 23.0%
+- 탐구(2개 과목): 20.0%
+이를 고려하면, 4.2의 표준점수는 상당히 높은 점수입니다. 평균적으로 동의대학교 영화학과의 합격 기준은 다음과 같습니다:
+- 국어: 약 3.5~3.8
+- 수학: 약 3.4~3.7
+- 영어: 약 3.6~3.9
+- 탐구(2개 과목): 약 3.0~3.3
+따라서, 국어와 수학, 영어는 이미 충분히 높은 점수를 받았습니다. 탐구 과목에서도 좋은 성적을 받으면 더 좋겠지만, 현재의 수능 성적이 합격 가능성을 크게 높입니다.
+그러나 최종 합격 여부는 여러 요인에 따라 결정되므로, 다음과 같은 점들을 고려해보세요:
+1. **경쟁률**: 영화학과의 경쟁률을 확인하세요.
+2. **전형요소**: 면접 등 다른 전형요소도 중요합니다.
+3. **개인 특성**: 학교생활기록부, 자기소개서 등의 개인적 요소가 중요한 역할을 합니다.
+결론적으로, 4.2의 표준점수는 좋은 성적이므로 합격 가능성은 높습니다. 하지만 최종 결정은 입학사정관들의 평가에 따라 달라질 수 있으니, 모든 준비를 철저히 해보세요.</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.7689996361732483</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>以下是面试流程的韩文翻译：
+```
+면접절차 / 
+① 대기실 입실 ⇨ ② 신분 확인 ⇨ ③ 고사장 앞 이동 ⇨ ④ 고사장 입실 ⇨ 
+⑤ 지원동기 및 학업계획 발표 ⇨ ⑥ 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답 ⇨ 
+⑦ 기타 질의응답(제출서류 진위 여부 등) ⇨ ⑧ 퇴실 /
+```</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.850077748298645</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 다음과 같은 특징을 가지고 있습니다:
+1. **종목 선택**:
+   - 학생들은 시각디자인, 산업디자인, 공예디자인 중에서 택1을 선택합니다.
+2. **배점 및 비율**:
+   - 선택한 종목의 배점은 700점으로, 이는 총 점수의 70%를 차지합니다.
+3. **준비물**:
+   - 볼펜, 연필, 색연필, 수채물감 등 다양한 도구가 필요합니다.
+4. **실기 주제**:
+   - 주제A와 주제B 각각에서 1개씩 선택하여 연결된 주제를 당일 추첨을 통해 결정합니다.
+   - 예시로는 "잠자리와 저울"과 같은 주제가 있을 수 있습니다.
+5. **화지 크기 및 시간**:
+   - 켄트지 3절의 화지를 사용하며, 시험은 5시간 동안 진행됩니다.
+이러한 점을 고려하여 준비를 하시면 좋을 것 같습니다. 특히 다양한 도구와 재료를 미리 준비하고, 당일 추첨된 주제에 대해 사전에 여러 가지 아이디어를 발전시키는 것이 중요할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.9244329929351807</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 시각디자인, 산업디자인, 공예디자인 중 택1입니다.
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+- **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "잠자리와 저울", "콜라병과 계절" 등이 있습니다.
+- **화지크기**: 켄트지 3절입니다.
+- **시간**: 5시간 동안 진행됩니다.
+디자인조형학과의 실기 종목은 시각, 산업, 공예 중에서 선택하여 준비해야 합니다. 주제는 당일 추첨을 통해 결정되므로 미리 다양한 주제를 연습해두는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.8746455907821655</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 배드민턴(남)의 경우 다음과 같은 대회들이 인정대회로 지정되어 있습니다:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)의 경우 다음과 같은 대회들이 인정대회로 지정되어 있습니다:
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.9804637432098389</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B를 선택하여 연결된 주제로 시험을 치릅니다. 제공되는 예시 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+참가자는 이 두 가지 주제 중에서 각각 하나를 선택하여 연결된 주제로 작업을 진행해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.9696065187454224</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>네, 동의대학교 학생부교과 전형에서 출결 점수가 반영됩니다.
+具体的来说，在学生部教科型录取中，出勤记录占到了评分比例的12%。你可以参考以下信息：
+- 学生部教科型 / 《学生成绩 / 出勤 / 70% / 12% / 18%》
+这表明在学生部教科型录取中，学生的学业成绩占70%，出勤记录占12%，而其他因素则占18%。</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.5588172078132629</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다.
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 / 
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.914333701133728</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 /
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 얻었습니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.7993823289871216</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>22명입니다. 의료보건생활대학 간호학과의 나군 일반학생 전형 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.8074212670326233</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>以下是按照韩语提供的英语等级对应的分数：
+| 等级 | 分数 |
+| --- | --- |
+| 1 | 139 |
+| 2 | 131 |
+| 3 | 123 |
+| 4 | 115 |
+| 5 | 107 |
+| 6 | 99 |
+| 7 | 91 |
+| 8 | 83 |
+| 9 | 75 |
+这是根据英语等级对应的分数表。</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.5490720272064209</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>지원자 중 예술고 출신자는 농어촌학생전형에 지원할 수 없습니다.
+[표 추가내용]에서 다음과 같이 명시되어 있습니다:
+"농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다."
+따라서 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.9667284488677979</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>4등급의 제자리 멀리뛰기 기록은 253~256 cm이며, 이에 대한 배점은 112.0 점입니다.
+참고로, 이 기록은 다음과 같이 나뉩니다:
+- 253 cm (여자)
+- 256 cm (여자)
+이 기록을 달성하면 레저스포츠학과 여자 제자리 멀리뛰기에서 112.0 점을 받게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.7615546584129333</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.3736630380153656</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>4명을 모집합니다.
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다. 해당 표에 따르면 물리치료학과의 모집인원은 4명입니다.
+[표 내용]
+```
+공과대학 / 공학 / 물리치료학과 / 4 /
+```</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.6359188556671143</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 실시됩니다.
+참조 정보:
+- [표 제목] : 나군 수능(일반학생전형), 실기/실적(일반학생전형) 실기고사 일정
+- [내용] : 체육학과, 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) / 2024. 01. 17.(수)</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.7676349282264709</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준 정보는 제공된 데이터에서 확인할 수 없습니다. 
+표 "전형요소 반영비율"을 보면, 응용화학과는 나군 실기/실적(일반학생전형) 모집단위에 속해 있으며, 해당 표에서는 수능 최저기준이 기재되어 있지 않습니다.
+추가로 확인할 수 있는 정보는:
+- 응용화학과는 나군 실기/실적 위주 전형입니다.
+- 이 전형의 경우 수능 점수는 반영되지 않음
+- 대신 학생부교과 30% + 서류 70%로 평가됨
+따라서 정확한 수능 최저기준 정보를 얻으려면 동의대학교 입학처나 공식 홈페이지를 통해 확인하시거나, 직접 문의해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.5768133401870728</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과들은 다음과 같습니다:
+1. 미래융합대학 - 라이프융합학부 (신설)
+   - 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학
+2. 미래융합대학 - 부동산자산경영학부 
+   - 부동산투자학, 부동산개발경영학
+3. 인문사회과학대학 - 심리학과 (신설)
+4. 상경대학 - 경영정보학과 (신설)
+5. 공과대학 - 인간공학과 (신설)
+6. 공과대학 - 산업경영빅데이터공학과 (신설)
+7. ICT융합공과대학 - 인공지능학과 (신설)
+8. 경기지도학과 (신설) - 축구(남), 배드민턴(남)
+위와 같이 2024학년도에 신설된 학과들이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.9373929500579834</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 정보는 표 "전형요소 반영비율"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.9604923725128174</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 의료·보건·생활, 공과, ICT융합공과대학 모집단위에서 수학(미적분 or 기하) 응시자에게 수학 취득 표준점수의 10% 가산점을 부여합니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.9732068777084351</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 수능(일반학생전형)에서는 수능 성적이 다음과 같이 반영됩니다:
+- 국어(화법과작문 또는 언어와매체): 25%
+- 수학(확률과통계 또는 미적분 또는 기하): 25%
+- 영어: 25%
+- 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합): 25%
+또한, 한의예과 수학(미적분/기하) 응시자에게는 수학 취득 표준점수의 10% 가산점이 부여됩니다.
+이러한 영역별로 각각 25%씩 반영되며, 이들 점수를 합산하여 최종 성적을 산출합니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.8541250824928284</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 1월 16일(화)에 진행됩니다.
+상세 일정은 다음과 같습니다:
+- **&lt;가&gt;군 실기고사**: 레저스포츠학과와 태권도학과는 2024년 1월 16일(화)에 실시됩니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.9537346363067627</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 제외된 모집단위는 다음과 같습니다:
+- 디자인조형학과
+- 체육학과
+- 경기지도학과
+이 세 학과는 다른 전형방식을 사용하거나 모집하지 않는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.9804558753967285</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용됩니다.
+참조된 정보:
+- [표 제목 : 다군 수능(일반학생전형) 전형요소 반영비율]
+  - "다군 수능(일반학생전형) / 전 모집단위 / { 100% / } /"
+수능 최저기준이 100%로 반영되어 있으므로, 이는 다군 전형에서 수능 점수가 학생들의 선발에 결정적인 역할을 하며, 최저 기준은 존재한다고 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.8981001377105713</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 -&gt; 아동학과
+2. 경제금융보험학과 -&gt; 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) -&gt; 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 -&gt; 부동산투자학과, 부동산개발경영학과
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) -&gt; 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) -&gt; 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) -&gt; 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) -&gt; 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) -&gt; 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) -&gt; 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) -&gt; 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) -&gt; 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) -&gt; 전기공학과, 전자공학과
+이러한 변경사항은 2024학년도 동의대학교에서 학과 구조를 더욱 세분화하고 전문성을 강화하기 위한 조치로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.9740728735923767</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 원서접수 마감일은 2024년 1월 6일(토) 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.9768789410591125</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 주요 전형들은 다음과 같습니다:
+1. **영어영문학과 (가)와 (다) 군 변경**
+   - 영어영문학과가 정시모집군이 변경되었습니다.
+2. **호텔‧컨벤션경영학과 (나)와 (가) 군 변경**
+   - 호텔‧컨벤션경영학과의 정시모집군이 변경되었습니다.
+3. **로봇자동화공학과 (나)와 (가) 군 변경**
+   - 로봇자동화공학과의 정시모집군이 변경되었습니다.
+4. **토목공학과 (가)와 (나) 군 변경**
+   - 토목공학과의 정시모집군이 변경되었습니다.
+5. **응용화학과 (가)와 (다) 군 변경**
+   - 응용화학과의 정시모집군이 변경되었습니다.
+6. **바이오의약공학과 (다)와 (나) 군 변경**
+   - 바이오의약공학과의 정시모집군이 변경되었습니다.
+7. **제품디자인공학과 (가)와 (나) 군 변경**
+   - 제품디자인공학과의 정시모집군이 변경되었습니다.
+8. **전기공학과 (가)와 (나) 군 변경**
+   - 전기공학과의 정시모집군이 변경되었습니다.
+9. **전자공학과 (가)와 (나) 군 변경**
+   - 전자공학과의 정시모집군이 변경되었습니다.
+10. **학생부종합 평가영역 변경**
+    - 학생부종합 평가영역이 변경되었으며, 공동체역량을 추가로 포함하였습니다.
+11. **전형요소 반영비율 변경**
+    - 실기/실적(경기실적우수자전형)의 전형요소 반영비율이 변경되었습니다.
+      - 학생부교과 30% + 서류 70%
+      - 학생부교과 18% + 출결 12% + 서류 70%
+12. **학생부종합(조기취업형계약학과전형)의 전형요소 반영비율 변경**
+    - 서류 60% + 면접 40%
+    - 이전에는 서류 70% + 면접 30%이었습니다.
+위와 같은 변화가 주요한 전형 요소 변화들입니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.873313844203949</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이는 "가군 실기/실적(일반학생전형) / 레저스포츠학과, 태권도학과" 항목에서 확인할 수 있습니다:
+전형요소 { 수능 / 실기 } : { 30% / 70% / }
+이는 가군 실기/실적 전형에서 실기 점수가 총점의 70%를 차지한다는 것을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.9530858397483826</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공으로 구성되어 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학 
+3. 라이프생활문화학
+이 학부는 나군 학생부종합(평생학습자전형)에서 모집되고 있으며, 해당 전공들은 평생학습자 또는 성인학습자를 대상으로 합니다.
+참고로 이 라이프융합학부는 2024년도에 신설되었으며, 나군 학생부종합(평생학습자전형) 모집단위에 포함되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.9099050760269165</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (제자리 멀리뛰기, Z-런)
+2. 태권도학과
+이 두 학과만 가군에서 실기고사가 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.8963234424591064</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "실기/실적(경기실적우수자전형)"은 경기지도학과에만 모집이 진행됩니다.
+관련 정보를 요약하면:
+- **모집단위**: 경기지도학과
+- **계열**: 예체능
+- **종목별 모집인원**:
+  - 배드민턴(남): 3명
+  - 축구(남): 4명
+따라서 실기/실적 위주 전형을 지원하려면 경기지도학과에만 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.9335345029830933</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학에서 신설되는 라이프융합학부는 다음과 같은 전공을 제공합니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학 
+- 라이프생활문화학
+따라서, 동의대 라이프융합학부에서는 총 3개의 전공을 개설하였습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.6704409122467041</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 특수목적고등학교(과학고, 국제고, 외국어고, 예술고, 체육고) 출신자는 일반학생전형에 지원할 수 없습니다.
+참조되는 정보는 다음과 같습니다:
+- [표 제목 : 고교유형별 지원자격]
+  - 모집군 / 전형명 / 고교유형별 지원자격
+    - 특수목적고: 과학고, 국제고, 외국어고, 예술고, 체육고 출신자는 지원할 수 없습니다.
+따라서 특수목적고등학교 학생인你是韩国人吗？根据您提供的信息，您似乎是在查询关于동의대학교（东义大学）的招生相关信息。如果您是想确认是否可以作为普通高中毕业生身份申请东义大学的一般学生入学，请注意，特殊教育学校的毕业生不能申请一般学生入学。
+如果有其他问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.6245990991592407</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 모집 인원을 확인해야 합니다. 제공된 정보 중 나군 수능(일반학생전형)의 모집인원을 살펴보면, 다음과 같은 학과들이 많은 모집인원을 가지고 있습니다:
+1. 경영정보학과: 7명
+2. e비즈니스학과: 10명
+3. 회계학과: 21명
+그러나 가장 큰 규모로 모집되는 학과는 **회계학과**로, 21명을 모집하고 있습니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **회계학과**입니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.8947132229804993</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>你在申请过程中需要注意以下几点：
+1. **支持资格**：你需要满足以下条件之一：
+   - 在农村（乡、镇）地区就读的初中和高中全程课程。
+   - 父母在任何地方居住，但你自己在农村（乡、镇）地区的初中到高中的全程课程中就读并居住。
+2. **排除条件**：你不能是科学高中、国际高中或外语高中的毕业生。
+3. **居住地认定**：你的居住地和父母的居住地可以不同。你在读期间和居住期间需要连续，不允许中断。
+4. **额外验证**：如果有必要，学校可能会要求提交相关文件进行进一步核实，并可能通过电话或现场访问来确认情况。
+根据这些信息，如果你满足上述条件之一并且不是排除条件中的学生，则你可以申请东义大学的学生部教科农村学生类型。建议你仔细检查自己的情况是否符合支持资格的要求。如果有疑问，可以咨询学校的招生办公室以获得更详细的指导。</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.3852563798427582</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 330.11, 표준 편차 9.08
+- 영어 등급: 평균 4.70, 표준 편차 1.00
+- 수능 4개 영역 등급: 평균 5.59, 표준 편차 0.51
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 385.99, 표준 편차 23.23
+이 정보는 [표 내용] 섹션에서 소프트웨어공학부에 대한 세부 성적 데이터를 통해 추출한 것입니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.8092001676559448</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 330.11, 표준 편차 9.08
+- 영어 등급: 평균 4.70, 표준 편차 1.00
+- 수능 4개 영역 등급: 평균 5.59, 표준 편차 0.51
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 385.99, 표준 편차 23.23
+이 정보는 "수능(일반학생전형) 최종등록자" 표에서 소프트웨어공학부에 해당하는 데이터를 기반으로 추출한 것입니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.8069660067558289</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.7929171049594879</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.7841355717182159</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.7609789326786995</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.7885263383388519</v>
+      <c r="D305" t="n">
+        <v>0.7793438697854678</v>
       </c>
     </row>
   </sheetData>
